--- a/12V5A BOM.xlsx
+++ b/12V5A BOM.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gs\Desktop\12V5A\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="7810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="7808"/>
   </bookViews>
   <sheets>
     <sheet name="12V5A TWO" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="165">
   <si>
     <t>PCB方案验证板 12V5A 60W  BOM</t>
   </si>
@@ -514,14 +519,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,336 +561,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -914,260 +598,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,9 +617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,68 +626,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1510,1136 +908,1135 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5833333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.46484375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.73046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="46.86328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.73046875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5">
+      <c r="G13" s="5"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5">
+      <c r="G14" s="5"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5">
+      <c r="G15" s="5"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>2</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5">
+      <c r="G16" s="5"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>104</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7"/>
       <c r="I17"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7"/>
       <c r="I18"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="5">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="7"/>
       <c r="I19"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="5">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="7"/>
       <c r="I20"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="7"/>
       <c r="I21"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="5">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="7"/>
       <c r="I22"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="5">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="7"/>
       <c r="I23"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="5">
+      <c r="G24" s="5"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>222</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="5">
+      <c r="G25" s="5"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>224</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="5">
+      <c r="G26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>2</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="5">
+      <c r="G27" s="5"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5">
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="5">
+      <c r="G29" s="5"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="5">
+      <c r="G30" s="5"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="5">
+      <c r="G31" s="5"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>472</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="5">
+      <c r="G32" s="5"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="5">
+      <c r="G33" s="5"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="5">
+      <c r="G34" s="5"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="5">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="5">
+      <c r="G36" s="5"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>3</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="5">
+      <c r="G37" s="5"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="5">
+      <c r="G38" s="5"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="5">
+      <c r="G39" s="5"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>2</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="5">
+      <c r="G40" s="5"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="5">
+      <c r="G41" s="5"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="5">
+      <c r="G42" s="5"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="5">
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="5">
+      <c r="G44" s="5"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://item.szlcsc.com/142391.html"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://item.szlcsc.com/185729.html"/>
-    <hyperlink ref="G5" r:id="rId3" display="https://item.szlcsc.com/256685.html"/>
-    <hyperlink ref="G6" r:id="rId4" display="https://item.szlcsc.com/112805.html"/>
-    <hyperlink ref="G7" r:id="rId5" display="https://item.szlcsc.com/116750.html"/>
-    <hyperlink ref="G8" r:id="rId6" display="https://item.szlcsc.com/5573.html"/>
-    <hyperlink ref="G9" r:id="rId7" display="https://item.szlcsc.com/207192.html"/>
-    <hyperlink ref="G10" r:id="rId8" display="https://item.szlcsc.com/194821.html"/>
-    <hyperlink ref="G11" r:id="rId9" display="https://item.szlcsc.com/124127.html"/>
-    <hyperlink ref="G12" r:id="rId10" display="https://item.szlcsc.com/21360.html"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId10"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/12V5A BOM.xlsx
+++ b/12V5A BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gs\Desktop\12V5A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\除湿器 本安电源 STM32最小 段码屏solidwork\12V5A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="227">
   <si>
     <t>PCB方案验证板 12V5A 60W  BOM</t>
   </si>
@@ -498,9 +498,6 @@
     <t>T2</t>
   </si>
   <si>
-    <t>说明：变压器需要定制（可在淘宝上定制），或者自己绕，使用PQ2620骨架，匝比：40:6:8，  LP（电感量）:500</t>
-  </si>
-  <si>
     <t>Rf1</t>
   </si>
   <si>
@@ -514,13 +511,205 @@
   </si>
   <si>
     <t>C209816</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>1k/0805</t>
+  </si>
+  <si>
+    <t>1M/1206</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>12V5A</t>
+  </si>
+  <si>
+    <t>12VFAN</t>
+  </si>
+  <si>
+    <t>12.5K/1%/0805</t>
+  </si>
+  <si>
+    <t>18mH</t>
+  </si>
+  <si>
+    <t>47uF/50V</t>
+  </si>
+  <si>
+    <t>50K/2510/1W</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>AMS1117-3V3</t>
+  </si>
+  <si>
+    <t>PC817B</t>
+  </si>
+  <si>
+    <t>Plug AC Male</t>
+  </si>
+  <si>
+    <t>PQ2620</t>
+  </si>
+  <si>
+    <t>Res1</t>
+  </si>
+  <si>
+    <t>W806核心板</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>Silicon Low Leakage Diode</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>Header, 2-Pin</t>
+  </si>
+  <si>
+    <t>Transformer (Ideal)</t>
+  </si>
+  <si>
+    <t>Polarized Capacitor (Axial)</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Full Wave Diode Bridge</t>
+  </si>
+  <si>
+    <t>Typical RED, GREEN, YELLOW, AMBER GaAs LED</t>
+  </si>
+  <si>
+    <t>4-Pin Phototransistor Optocoupler</t>
+  </si>
+  <si>
+    <t>IEC Mains Power Inlet, EN60 320-1 C14 Class I Cold Condition, PC Flange Rear Mount, Chassis Plug</t>
+  </si>
+  <si>
+    <t>N-Channel Power MOSFET</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>C14, C15</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>RX2, RX3, RX4</t>
+  </si>
+  <si>
+    <t>RX1</t>
+  </si>
+  <si>
+    <t>C12, C13</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Lx1</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>或者自己绕，使用PQ2620骨架，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>匝比：40:6:8，  LP（电感量）:500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：变压器需要定制，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>（可在淘宝上定制）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,16 +755,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -598,6 +801,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,6 +876,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,11 +1175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -926,7 +1187,7 @@
     <col min="1" max="1" width="5.265625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.59765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.46484375" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.73046875" style="2" customWidth="1"/>
@@ -1729,7 +1990,9 @@
       <c r="F33" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1775,7 +2038,9 @@
         <v>132</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -1823,7 +2088,9 @@
       <c r="F37" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G37" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -1871,7 +2138,9 @@
       <c r="F39" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="5"/>
+      <c r="G39" s="16" t="s">
+        <v>225</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -1895,7 +2164,7 @@
       <c r="F40" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="5"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -1919,7 +2188,7 @@
       <c r="F41" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G41" s="5"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -1943,7 +2212,7 @@
       <c r="F42" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="5"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -1965,9 +2234,7 @@
         <v>158</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="G43" s="13"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -1986,12 +2253,12 @@
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="5"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -2001,28 +2268,1049 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" s="5"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <v>1</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
+        <v>2</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="11">
+        <v>4</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <v>3</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="11">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
+        <v>4</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="4">
+        <v>5</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="11">
+        <v>2</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
+        <v>6</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
+        <v>7</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="11">
+        <v>1</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
+        <v>8</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="11">
+        <v>1</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <v>9</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="11">
+        <v>1</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="4">
+        <v>10</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="11">
+        <v>3</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
+        <v>11</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="4">
+        <v>12</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="11">
+        <v>1</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="4">
+        <v>13</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="11">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="4">
+        <v>14</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="11">
+        <v>1</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="4">
+        <v>15</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="11">
+        <v>1</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="4">
+        <v>16</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="11">
+        <v>1</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="4">
+        <v>17</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="11">
+        <v>1</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="4">
+        <v>18</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="11">
+        <v>1</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="4">
+        <v>19</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="11">
+        <v>2</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="4">
+        <v>20</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="11">
+        <v>1</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="4">
+        <v>21</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="11">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="4">
+        <v>22</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="11">
+        <v>1</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="4">
+        <v>23</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="4">
+        <v>24</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="11">
+        <v>1</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="4">
+        <v>25</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="11">
+        <v>1</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="4">
+        <v>26</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="11">
+        <v>1</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="4">
+        <v>27</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="11">
+        <v>1</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="4">
+        <v>28</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="11">
+        <v>1</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="4">
+        <v>29</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="11">
+        <v>1</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="4">
+        <v>30</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" s="11">
+        <v>3</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="4">
+        <v>31</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78" s="11">
+        <v>1</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="4">
+        <v>32</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="4">
+        <v>33</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" s="11">
+        <v>1</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="4">
+        <v>34</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="11">
+        <v>1</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="4">
+        <v>35</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" s="11">
+        <v>1</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="4">
+        <v>36</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="11">
+        <v>1</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="4">
+        <v>37</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="4">
+        <v>38</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="11">
+        <v>1</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="4">
+        <v>39</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="11">
+        <v>1</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="4">
+        <v>40</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="11">
+        <v>1</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="4">
+        <v>41</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" s="11">
+        <v>1</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="4">
+        <v>42</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="11">
+        <v>1</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="4">
+        <v>43</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" s="11">
+        <v>1</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="4">
+        <v>44</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="11">
+        <v>2</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="4">
+        <v>45</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="11">
+        <v>2</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="4">
+        <v>46</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="11">
+        <v>1</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="4">
+        <v>47</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="11">
+        <v>1</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="4">
+        <v>48</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="11">
+        <v>1</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="4">
+        <v>49</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D96" s="11">
+        <v>1</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="4">
+        <v>50</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" s="11">
+        <v>1</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="4">
+        <v>51</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="11">
+        <v>1</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="4">
+        <v>52</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="11">
+        <v>1</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="4">
+        <v>53</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" s="11">
+        <v>1</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A101" s="4">
+        <v>54</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" s="11">
+        <v>1</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A102" s="4">
+        <v>55</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D102" s="11">
+        <v>1</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A103" s="4">
+        <v>56</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" s="11">
+        <v>1</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104" s="4">
+        <v>57</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" s="11">
+        <v>1</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105" s="4">
+        <v>58</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="11">
+        <v>1</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A106" s="4">
+        <v>59</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" s="11">
+        <v>1</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G39:G45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2038,5 +3326,6 @@
     <hyperlink ref="G12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>